--- a/model/results/mix5_ggpos_h2pos/b_tech.xlsx
+++ b/model/results/mix5_ggpos_h2pos/b_tech.xlsx
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4208,28 +4208,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428581</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -7320,10 +7320,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999948</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.20416320383802e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7460,25 +7460,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -7536,28 +7536,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428581</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10788,25 +10788,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.501210699437263e-15</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -10864,28 +10864,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428581</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.20416320383802e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -14116,25 +14116,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -14204,16 +14204,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428581</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -17237,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -17313,7 +17313,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -17383,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.20416320383802e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -17444,25 +17444,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -17532,16 +17532,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000006</v>
+        <v>0.1455223880597015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -20544,7 +20544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -20717,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20784,16 +20784,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1455223880597015</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -20860,16 +20860,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1455223880597015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22477,7 +22477,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.357142857142857</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -23960,7 +23960,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119402985074626</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -24112,16 +24112,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1455223880597014</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -24188,16 +24188,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27428,7 +27428,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27440,16 +27440,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1455223880597014</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27516,16 +27516,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000006</v>
+        <v>0.1455223880597017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -30549,7 +30549,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -30625,7 +30625,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -30701,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -30768,16 +30768,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1455223880597015</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -30844,16 +30844,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000006</v>
+        <v>0.1455223880597017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3571428571428544</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -33856,7 +33856,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -33868,16 +33868,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -33944,7 +33944,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34008,7 +34008,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34029,7 +34029,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -34084,7 +34084,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -34096,16 +34096,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1455223880597015</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -34172,16 +34172,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000006</v>
+        <v>0.1455223880597017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3571428571428544</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40512,7 +40512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692308424</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -40524,7 +40524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692308266</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -40600,7 +40600,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -40664,7 +40664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -40685,7 +40685,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40752,16 +40752,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1455223880597015</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40816,7 +40816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40828,16 +40828,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000006</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -41913,7 +41913,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3571428571428544</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -42445,7 +42445,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3571428571428544</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -42521,7 +42521,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428544</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -43840,7 +43840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -43916,7 +43916,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -44144,7 +44144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -47472,7 +47472,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -48484,7 +48484,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-7.833453653792641e-14</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -50496,7 +50496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -50572,7 +50572,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.3566786065705915</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729243509295795</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -50730,7 +50730,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -50800,13 +50800,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -50821,7 +50821,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -52976,7 +52976,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.000000000000019</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -53128,7 +53128,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -53204,7 +53204,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -53356,7 +53356,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -53508,7 +53508,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -53584,7 +53584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -53660,7 +53660,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -53824,7 +53824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53900,7 +53900,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -53921,7 +53921,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.3566786065705915</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -53988,16 +53988,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4729243509295795</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -54058,7 +54058,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -54128,28 +54128,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -56228,7 +56228,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -56304,7 +56304,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -56380,7 +56380,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -56456,7 +56456,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -56532,7 +56532,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -56684,7 +56684,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -56836,7 +56836,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -56912,7 +56912,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -56988,7 +56988,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -57152,7 +57152,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -57173,7 +57173,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5337301359957075</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -57228,7 +57228,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -57249,7 +57249,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.3566786065705915</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -57386,7 +57386,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -57456,28 +57456,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -58474,7 +58474,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -59556,7 +59556,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -59632,7 +59632,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -59708,7 +59708,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -59784,7 +59784,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -59860,7 +59860,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -60012,7 +60012,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -60164,7 +60164,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -60240,7 +60240,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -60316,7 +60316,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -60480,7 +60480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -60492,13 +60492,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -60556,7 +60556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -60568,13 +60568,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -60714,7 +60714,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -60784,28 +60784,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -62489,7 +62489,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428581</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -62884,7 +62884,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -62960,7 +62960,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -63036,7 +63036,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -63112,7 +63112,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -63188,7 +63188,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -63340,7 +63340,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -63492,7 +63492,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -63568,7 +63568,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -63644,7 +63644,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -63808,7 +63808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -63884,7 +63884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307694</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -64042,7 +64042,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -64112,28 +64112,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307694</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1455223880597014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -65817,7 +65817,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3571428571428581</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -66212,7 +66212,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -66288,7 +66288,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -66364,7 +66364,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -66516,7 +66516,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -66668,7 +66668,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -66820,7 +66820,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -66896,7 +66896,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -66972,7 +66972,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
